--- a/biology/Botanique/Conard-Pyle_Co/Conard-Pyle_Co.xlsx
+++ b/biology/Botanique/Conard-Pyle_Co/Conard-Pyle_Co.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conard-Pyle Co est un horticulteur-pépiniériste américain, basé à West Grove en Pennsylvanie.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1897 se crée une petite pépinière, la Conard et Jones Company. Robert Pyles y arrive en 1899 et en 1908 l'entreprise se spécialise dans les rosiers et crée la marque Star Roses.
 C'est en 1925 que naît Conard-Pyle Co. Ils participent à l'élaboration des AARS (All-America Rose Selections), trophée qui n'accepte que les rosiers à belles fleurs, résistant aux maladies.
@@ -543,7 +557,9 @@
           <t>Partenariat Conard-Pyle Co et Meilland</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Après la Première Guerre mondiale, Antoine Meilland signe un contrat avec eux pour la commercialisation des roses Meilland aux États-Unis.
 En 1939, Francis Meilland apporte ses créations en cours pour les sauvegarder, en particulier 'Madame Antoine Meilland' (appelée 'Peace' aux États-Unis). 
